--- a/biology/Médecine/Nan_Jing/Nan_Jing.xlsx
+++ b/biology/Médecine/Nan_Jing/Nan_Jing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Le classique des questions difficiles
-Le Nan jing 难经 /(anc.) 難經 « Le classique des questions difficiles » est un ouvrage médical chinois, appelé aussi Huangdi ba shi yi nan jing 黄帝八十一难经 « Le classique des 81 questions difficiles du Huangdi [nei jing] ». Il est traditionnellement attribué à Qin Yue ren 秦越人 de la période des Royaumes combattants (-476, -221) mais Zheng Jinsheng et al. (2018) considèrent que c’est improbable[1]. La date de création probable se situe aux Ier – IIe siècles, avant les Trois Royaumes (220-265). Volume : 2 juan, 81 chapitres.
+Le Nan jing 难经 /(anc.) 難經 « Le classique des questions difficiles » est un ouvrage médical chinois, appelé aussi Huangdi ba shi yi nan jing 黄帝八十一难经 « Le classique des 81 questions difficiles du Huangdi [nei jing] ». Il est traditionnellement attribué à Qin Yue ren 秦越人 de la période des Royaumes combattants (-476, -221) mais Zheng Jinsheng et al. (2018) considèrent que c’est improbable. La date de création probable se situe aux Ier – IIe siècles, avant les Trois Royaumes (220-265). Volume : 2 juan, 81 chapitres.
 Le texte est organisé sous forme de 81 questions-réponses portant sur des difficultés d’interprétation du Huangdi nei jing Suwen. Il s’arrête particulièrement sur les diagnostiques par les pouls et la thérapie par acupuncture et moxibustion.
 </t>
         </is>
